--- a/Weight Sizing.xlsx
+++ b/Weight Sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\raes-sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BAC67B-9D19-4F7A-81A4-73694D39A482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750E8F81-66C8-48CF-AC21-4D0FEA4F2001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,22 +348,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/Weight Sizing.xlsx
+++ b/Weight Sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\raes-sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BAC67B-9D19-4F7A-81A4-73694D39A482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4716787-1BA3-4AA6-B5AA-74795C9C8609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,22 +348,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
